--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/55_Malatya_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/55_Malatya_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAE9915-97C4-4C03-AF44-1141E4302AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13E51BFD-668C-4BA8-A4FF-69A2720AA401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{67D087E5-D74B-4122-BCBE-76BF7659FD36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{A9B89D8B-0FCA-48F6-9A0C-EE34A47D5742}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -919,14 +919,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{50042A6B-5FF7-4B0F-AB49-44B7058023CD}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{0D61C11F-B894-4137-8958-93F7263BE44F}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{243E237F-BC0C-4916-A04C-3D1F0333C5EE}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{19DA39E5-FB51-44A5-897D-44AEE8D739A7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{04D3BEB0-3B96-447E-99E4-9B975C3A8F96}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A47DB571-B08B-401A-9694-10D52FC448B4}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{BFE064AF-C6B2-45D5-856E-179AADFF407C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3F240A26-21AB-4399-8634-B0D3ED4CD94F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{DA40F8E1-65E0-4A33-86E2-CE95D7EC8B50}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8C58A58B-F377-49E4-9092-E8B2814AD08A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{459C9BD7-3F3E-4871-88DF-53FA1988778E}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{240097F8-FA95-47DD-AA68-74E86E2B94F9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AC7353F3-DD40-48EA-BA72-4A50F1E29475}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A548C040-0CF4-4167-853C-CE0210155019}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2DFE9070-AD76-4E9E-A8EE-6F9BD5440A26}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{56982DE4-B90F-4752-8E65-238A7037FDDE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BB2828-1312-4D19-A50E-C7C684ABA5C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8225B426-E0B6-4120-8D6D-7694A5DCB6F5}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2568,7 +2568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846473E-91CB-4166-BF46-26BEF82EDB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429F253A-C9BB-4FA2-BDD7-DF8745F5BCF2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C77392E-4078-40C6-A46A-4BC57641155D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E2A73F-F70F-4740-8E39-21CFE25AE625}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5028,7 +5028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D3CE97-D6EC-4453-8FB1-F6E3ED299BE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6EDF40-52A8-4434-95B6-1D313F484B71}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6245,7 +6245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A7CC39-420B-4BFC-8558-86A5D10135B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF86478A-0A45-4928-BF3C-D7F1E3802B93}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7512,7 +7512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77E5AA9-EF0F-4D75-A30B-1794B3E478A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ACFAAC-550E-4E40-820B-7E8AD966342C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8779,7 +8779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB1D74-C18B-4942-BBF6-FD8E9ACE37EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96719A3-1D44-4CED-88F7-5F590AC429B6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10046,7 +10046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907A9B3D-1A11-43DB-936A-9146920AD1D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF3E55E-EC35-4521-B07C-0989942042E7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11313,7 +11313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F0F75A-F38A-4B3F-9DAE-7DBCFEB78BA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98B7CCF-BAFB-4A9B-A224-9F2091ACB422}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12580,7 +12580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD365D1-B371-4C64-9F60-5FF264CA437D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBE3E4F-568B-4C22-8972-B81299A0A172}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13835,7 +13835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A2A1EC-2860-48AC-A4A8-70245562DA3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4D6EA8-534E-4403-BC5D-6024F977B6BF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15090,7 +15090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFACF160-FB51-4588-8700-9F50F8A244A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CF5C2A-3212-45EE-AC78-C839D7471117}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
